--- a/xlsx/反对党_intext.xlsx
+++ b/xlsx/反对党_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E9%87%8E%E9%BB%A8</t>
   </si>
   <si>
-    <t>在野黨</t>
+    <t>在野党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -77,49 +77,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>保守黨 (英國)</t>
+    <t>保守党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>工黨 (英國)</t>
+    <t>工党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%8E%8B%E9%99%9B%E4%B8%8B%E6%9C%80%E5%BF%A0%E8%AA%A0%E7%9A%84%E5%8F%8D%E5%B0%8D%E9%BB%A8</t>
   </si>
   <si>
-    <t>女王陛下最忠誠的反對黨</t>
+    <t>女王陛下最忠诚的反对党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%AD%90%E6%94%BF%E5%BA%9C</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%99%E9%81%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>候選人</t>
+    <t>候选人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
@@ -161,55 +161,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>選舉制度</t>
+    <t>选举制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%94%BF%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>憲政民主</t>
+    <t>宪政民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%97%E9%95%B7%E8%BE%AF%E8%AB%96</t>
   </si>
   <si>
-    <t>冗長辯論</t>
+    <t>冗长辩论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>遊行</t>
+    <t>游行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E5%A8%81</t>
@@ -221,43 +221,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8B%95%E8%AD%B0</t>
   </si>
   <si>
-    <t>不信任動議</t>
+    <t>不信任动议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E5%8A%BE</t>
   </si>
   <si>
-    <t>彈劾</t>
+    <t>弹劾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%85%8D</t>
   </si>
   <si>
-    <t>罷免</t>
+    <t>罢免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B3%95%E9%9B%86%E6%9C%83</t>
   </si>
   <si>
-    <t>非法集會</t>
+    <t>非法集会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%9D%90</t>
   </si>
   <si>
-    <t>靜坐</t>
+    <t>静坐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E9%A3%9F</t>
   </si>
   <si>
-    <t>絕食</t>
+    <t>绝食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%97%E6%8A%A5</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>游擊戰</t>
+    <t>游击战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%8B%A2%E5%8A%9B</t>
   </si>
   <si>
-    <t>第三勢力</t>
+    <t>第三势力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E6%B4%BE</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>商務印書館（香港）有限公司</t>
+    <t>商务印书馆（香港）有限公司</t>
   </si>
 </sst>
 </file>
